--- a/basicjavascript.xlsx
+++ b/basicjavascript.xlsx
@@ -8,20 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRorrer\Documents\GitHub\Formbar.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA86FC34-E60C-41AE-A0C3-7952AE4B47B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942188A-1508-49D5-9297-A3A333F02F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="6" r:id="rId1"/>
     <sheet name="Steps" sheetId="8" r:id="rId2"/>
-    <sheet name="Objectives" sheetId="5" r:id="rId3"/>
-    <sheet name="Resources" sheetId="7" r:id="rId4"/>
-    <sheet name="Vocabulary" sheetId="9" r:id="rId5"/>
-    <sheet name="Progress_1" sheetId="2" r:id="rId6"/>
-    <sheet name="Progress_2" sheetId="10" r:id="rId7"/>
-    <sheet name="Quiz_1" sheetId="1" r:id="rId8"/>
-    <sheet name="Lesson" sheetId="11" r:id="rId9"/>
+    <sheet name="Vocabulary" sheetId="9" r:id="rId3"/>
+    <sheet name="Quiz_1" sheetId="1" r:id="rId4"/>
+    <sheet name="Lesson" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Question</t>
   </si>
@@ -50,18 +46,9 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -204,51 +191,6 @@
   </si>
   <si>
     <t>Ready for class</t>
-  </si>
-  <si>
-    <t>Duplicate 'index.html' as 'about.html'</t>
-  </si>
-  <si>
-    <t>Right click on 'index.html' in the folder view and 'Duplicate'. Rename and hit the 'Enter' key</t>
-  </si>
-  <si>
-    <t>Remove all 'linksBox' div layers from 'about.html'</t>
-  </si>
-  <si>
-    <t>Remove the elements (from open tag to close tag) and their contents</t>
-  </si>
-  <si>
-    <t>Empty out the contents of each element and put in 'About'. H1 can be found in the 'headerBox' div layer</t>
-  </si>
-  <si>
-    <t>Change the 'title' and 'h1' elements with the new name 'About' in 'about.html'</t>
-  </si>
-  <si>
-    <t>Create a new file in 'css' called 'style.css'</t>
-  </si>
-  <si>
-    <t>Right click on 'css' in the folder view and Create New File. Type name and hit enter.</t>
-  </si>
-  <si>
-    <t>Copy the contents of your style tag from index.html into style.css</t>
-  </si>
-  <si>
-    <t>DO NOT copy the &lt;style&gt; tags. Just the CSS content in between.</t>
-  </si>
-  <si>
-    <t>Delete the &lt;style&gt; element in index.html and about.html</t>
-  </si>
-  <si>
-    <t>Remember that you must use the relative path 'css/style.css', because 'style.css' is inside of the 'css' folder</t>
-  </si>
-  <si>
-    <t>Create a new &lt;link&gt; element in both html files' &lt;head&gt; element, and add 'style.css' as the href</t>
-  </si>
-  <si>
-    <t>Save your files, refresh the pages to test, verify that the stylesheet is working.</t>
-  </si>
-  <si>
-    <t>It should look the same as before we started class</t>
   </si>
   <si>
     <t>What kind of filepath is on the same server as your web site?</t>
@@ -375,18 +317,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -409,17 +343,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -713,10 +644,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -735,7 +666,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,19 +677,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -794,10 +725,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,77 +740,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -895,178 +755,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1074,125 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.140625" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.140625" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1212,7 +954,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1238,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,22 +1003,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,22 +1026,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,22 +1049,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,22 +1072,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1353,46 +1095,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30849345-7965-494C-9FD5-D9B50588392C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1407,15 +1149,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABA223F759147049B9D8A25DED07DD24" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="78e24e8f5bb7e71d921d6cf1bb7d9b98">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc9255bc-4d99-4f42-bba5-857cbcc6e725" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c2977f2d4b52f4ad6afbd6080d76537" ns3:_="">
     <xsd:import namespace="cc9255bc-4d99-4f42-bba5-857cbcc6e725"/>
@@ -1593,6 +1326,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BD9466-AC2E-44D1-A6E0-91F63F9F04EC}">
   <ds:schemaRefs>
@@ -1610,14 +1352,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A119E91C-70AA-4D52-ADBB-C17F3D02E532}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1633,4 +1367,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/basicjavascript.xlsx
+++ b/basicjavascript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRorrer\Documents\GitHub\Formbar.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942188A-1508-49D5-9297-A3A333F02F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2BAF2-6EA2-4153-9FFC-4945B24527FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>Question</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Quiz_1</t>
   </si>
   <si>
-    <t>goofy aaaah</t>
-  </si>
-  <si>
     <t>Poll</t>
   </si>
   <si>
@@ -311,6 +308,30 @@
   </si>
   <si>
     <t>Lesson</t>
+  </si>
+  <si>
+    <t>In javascript, what is a 'Class'</t>
+  </si>
+  <si>
+    <t>Something boring</t>
+  </si>
+  <si>
+    <t>An object reader</t>
+  </si>
+  <si>
+    <t>A tool for  psuhing objects</t>
+  </si>
+  <si>
+    <t>A goofy aaah thing</t>
+  </si>
+  <si>
+    <t>An object creation tool</t>
+  </si>
+  <si>
+    <t>How did you feel about today's lesson?</t>
+  </si>
+  <si>
+    <t>Good, Meh, Confused, Upset</t>
   </si>
 </sst>
 </file>
@@ -666,13 +687,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,10 +709,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -706,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,11 +748,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -936,10 +979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" activeCellId="1" sqref="G8 F32"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +995,7 @@
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -962,20 +1005,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -998,7 +1029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1021,7 +1052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1044,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1067,7 +1098,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1086,8 +1117,31 @@
       <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>80</v>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1107,34 +1161,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1143,9 +1197,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,26 +1384,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BD9466-AC2E-44D1-A6E0-91F63F9F04EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cc9255bc-4d99-4f42-bba5-857cbcc6e725"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1370,9 +1416,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BD9466-AC2E-44D1-A6E0-91F63F9F04EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cc9255bc-4d99-4f42-bba5-857cbcc6e725"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/basicjavascript.xlsx
+++ b/basicjavascript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRorrer\Documents\GitHub\Formbar.js\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\APlitt\Documents\ProgrammingGitHub2024\Formbar.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2BAF2-6EA2-4153-9FFC-4945B24527FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBCD9B-8D66-4C10-ACB9-22048EF64AA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Good, Meh, Confused, Upset</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>0.9, 1.1</t>
+  </si>
+  <si>
+    <t>0.9, 1.0, 1.1, 1.2</t>
   </si>
 </sst>
 </file>
@@ -684,10 +693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +707,7 @@
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -714,8 +723,11 @@
       <c r="E1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -731,8 +743,11 @@
       <c r="E2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,7 +758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -754,7 +769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -770,11 +785,14 @@
       <c r="E5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -1197,12 +1215,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1384,15 +1399,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BD9466-AC2E-44D1-A6E0-91F63F9F04EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="cc9255bc-4d99-4f42-bba5-857cbcc6e725"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1416,17 +1442,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78BD9466-AC2E-44D1-A6E0-91F63F9F04EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A2703C-FBA4-45C7-94E2-5BD99335F262}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="cc9255bc-4d99-4f42-bba5-857cbcc6e725"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>